--- a/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
+++ b/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panagiotisnikolaoslalagkas/Desktop/mendelian_comorbidity_therapeutics/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4090C-70D2-7D40-8D94-D1921317D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1FF909-B480-A945-9562-0ACAD9C01BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25720" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:D604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
+++ b/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panagiotisnikolaoslalagkas/Desktop/mendelian_comorbidity_therapeutics/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1FF909-B480-A945-9562-0ACAD9C01BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACBC9BC-5AB1-0B4B-82F3-613BA0676D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25720" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8280" yWindow="-24220" windowWidth="25720" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="77">
   <si>
     <t>cancer</t>
   </si>
@@ -245,21 +245,6 @@
   </si>
   <si>
     <r>
-      <t>coexpression_pvalue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the adjusted pvalue is provided after correction for the number of mutated genes in a cancer</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>gene_overlap_pvalue</t>
     </r>
     <r>
@@ -270,7 +255,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: the one-sided pvalue is provided (Fisher's exact test)</t>
+      <t>: one-sided pvalue (Fisher's exact test) of the overlap between the Mendelian disease causal genes and the genes significantly altered in a cancer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">coexpression_pvalue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lowest adjusted pvalue of the correlation in expression between cancer driver genes and a set of Mendelian disease genes after correction for the number of mutated genes in a cancer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Co-expression between Familial Dysautonomia and cancers could not be measured as expression data for the gene associated with the Familial Dysautonomia (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IKBKAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) was not available.</t>
     </r>
   </si>
 </sst>
@@ -278,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,6 +332,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -315,10 +367,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D604"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -629,47 +684,38 @@
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.38161916944650298</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -678,12 +724,12 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.20292693414703999</v>
+        <v>0.38161916944650298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -692,12 +738,12 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.40720188774205901</v>
+        <v>0.20292693414703999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -706,12 +752,12 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.22344302148053599</v>
+        <v>0.40720188774205901</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -720,40 +766,40 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.35040418112313798</v>
+        <v>0.22344302148053599</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>8.3664938973934705E-2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.22055219024702699</v>
+        <v>0.35040418112313798</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8.3664938973934705E-2</v>
       </c>
       <c r="D11">
-        <v>0.31871112927293499</v>
+        <v>0.22055219024702699</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -762,12 +808,12 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.26002190374881901</v>
+        <v>0.31871112927293499</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -776,12 +822,12 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.25924692748501899</v>
+        <v>0.26002190374881901</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -790,54 +836,54 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.28984269837829701</v>
+        <v>0.25924692748501899</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.6899948645279599E-3</v>
+        <v>0.28984269837829701</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.110582708720214</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>4.4316235829119002E-3</v>
+        <v>2.6899948645279599E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.110582708720214</v>
       </c>
       <c r="D17">
-        <v>2.4828085971725601E-3</v>
+        <v>4.4316235829119002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -846,12 +892,12 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2.0881405292006001E-3</v>
+        <v>2.4828085971725601E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -860,12 +906,12 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2.1631455719834198E-3</v>
+        <v>2.0881405292006001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -874,12 +920,12 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2.4564626442870798E-3</v>
+        <v>2.1631455719834198E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -888,12 +934,12 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2.0324616576103899E-3</v>
+        <v>2.4564626442870798E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -902,12 +948,12 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3.7169855119248201E-3</v>
+        <v>2.0324616576103899E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -916,12 +962,12 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2.80701760835014E-3</v>
+        <v>3.7169855119248201E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -930,26 +976,26 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>3.6453807836087202E-3</v>
+        <v>2.80701760835014E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.205544149227808</v>
+        <v>3.6453807836087202E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -958,12 +1004,12 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.22420720180305101</v>
+        <v>0.205544149227808</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -972,12 +1018,12 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.25475793401246999</v>
+        <v>0.22420720180305101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -986,12 +1032,12 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.24342035282904401</v>
+        <v>0.25475793401246999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1000,12 +1046,12 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.19803230860224</v>
+        <v>0.24342035282904401</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -1014,12 +1060,12 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.19461259627698901</v>
+        <v>0.19803230860224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1028,12 +1074,12 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.26040271677261001</v>
+        <v>0.19461259627698901</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1042,12 +1088,12 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.142569951190054</v>
+        <v>0.26040271677261001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1056,12 +1102,12 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.19142920854215401</v>
+        <v>0.142569951190054</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -1070,68 +1116,68 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.220523287226596</v>
+        <v>0.19142920854215401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>8.7382154082823104E-4</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.30776265235109102</v>
+        <v>0.220523287226596</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>8.7382154082823104E-4</v>
       </c>
       <c r="D36">
-        <v>0.29135259829726101</v>
+        <v>0.30776265235109102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
       <c r="C37">
-        <v>1.35654683527447E-2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.271991824725274</v>
+        <v>0.29135259829726101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>1.35654683527447E-2</v>
       </c>
       <c r="D38">
-        <v>0.27252409219242402</v>
+        <v>0.271991824725274</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1140,12 +1186,12 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.202166219445438</v>
+        <v>0.27252409219242402</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1154,12 +1200,12 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.29971816772370302</v>
+        <v>0.202166219445438</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -1168,68 +1214,68 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.30456007189951401</v>
+        <v>0.29971816772370302</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42">
-        <v>2.5029726027448101E-2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.26431657939820602</v>
+        <v>0.30456007189951401</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2.5029726027448101E-2</v>
       </c>
       <c r="D43">
-        <v>0.27273075428016202</v>
+        <v>0.26431657939820602</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44">
-        <v>2.81056853547367E-3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.31415263538378502</v>
+        <v>0.27273075428016202</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2.81056853547367E-3</v>
       </c>
       <c r="D45">
-        <v>1.0612802984411801E-6</v>
+        <v>0.31415263538378502</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -1238,40 +1284,40 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1.55887923099596E-6</v>
+        <v>1.0612802984411801E-6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47">
-        <v>0.60460342474954598</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>2.8419962128935701E-6</v>
+        <v>1.55887923099596E-6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.60460342474954598</v>
       </c>
       <c r="D48">
-        <v>2.1421350124439699E-6</v>
+        <v>2.8419962128935701E-6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -1280,12 +1326,12 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2.39206267693415E-5</v>
+        <v>2.1421350124439699E-6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -1294,12 +1340,12 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1.64255480693258E-6</v>
+        <v>2.39206267693415E-5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -1308,12 +1354,12 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1.13626490081363E-6</v>
+        <v>1.64255480693258E-6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -1322,12 +1368,12 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>9.4356570456928698E-7</v>
+        <v>1.13626490081363E-6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -1336,82 +1382,82 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1.53120575726679E-6</v>
+        <v>9.4356570456928698E-7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54">
-        <v>0.33560443699015002</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>1.23041470273545E-6</v>
+        <v>1.53120575726679E-6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>6.7013631826471506E-2</v>
+        <v>0.33560443699015002</v>
       </c>
       <c r="D55">
-        <v>0.97070885208213797</v>
+        <v>1.23041470273545E-6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>6.7013631826471506E-2</v>
       </c>
       <c r="D56">
-        <v>0.98429314119969602</v>
+        <v>0.97070885208213797</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57">
-        <v>0.24830758663844699</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.987719404263949</v>
+        <v>0.98429314119969602</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.24830758663844699</v>
       </c>
       <c r="D58">
-        <v>0.98386347762625304</v>
+        <v>0.987719404263949</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -1420,54 +1466,54 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.94263619667243204</v>
+        <v>0.98386347762625304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60">
-        <v>8.3664938973934705E-2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.62239697456766796</v>
+        <v>0.94263619667243204</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
       <c r="C61">
-        <v>6.2271275575933802E-2</v>
+        <v>8.3664938973934705E-2</v>
       </c>
       <c r="D61">
-        <v>0.97945834346137695</v>
+        <v>0.62239697456766796</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>6.2271275575933802E-2</v>
       </c>
       <c r="D62">
-        <v>0.96466956489905198</v>
+        <v>0.97945834346137695</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -1476,54 +1522,54 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.78613037507632599</v>
+        <v>0.96466956489905198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64">
-        <v>0.11818995080936601</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.98838966436557496</v>
+        <v>0.78613037507632599</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>0.14451865955363299</v>
+        <v>0.11818995080936601</v>
       </c>
       <c r="D65">
-        <v>1.96702585023559E-5</v>
+        <v>0.98838966436557496</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.14451865955363299</v>
       </c>
       <c r="D66">
-        <v>2.12174415350497E-5</v>
+        <v>1.96702585023559E-5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -1532,12 +1578,12 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2.40768320563165E-5</v>
+        <v>2.12174415350497E-5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -1546,12 +1592,12 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>2.9599353956570599E-5</v>
+        <v>2.40768320563165E-5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -1560,12 +1606,12 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1.00394690066997E-5</v>
+        <v>2.9599353956570599E-5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -1574,40 +1620,40 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>2.2776286779906802E-5</v>
+        <v>1.00394690066997E-5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
       <c r="C71">
-        <v>0.13470236217018899</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1.19375285361898E-5</v>
+        <v>2.2776286779906802E-5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.13470236217018899</v>
       </c>
       <c r="D72">
-        <v>1.8935201037952599E-5</v>
+        <v>1.19375285361898E-5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -1616,12 +1662,12 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>2.3600033959234301E-5</v>
+        <v>1.8935201037952599E-5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -1630,26 +1676,26 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1.7194506788232099E-5</v>
+        <v>2.3600033959234301E-5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.54322354068525103</v>
+        <v>1.7194506788232099E-5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -1658,110 +1704,110 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.80340096625275403</v>
+        <v>0.54322354068525103</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77">
-        <v>7.8933903831164304E-2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0.88183284084416802</v>
+        <v>0.80340096625275403</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
       <c r="C78">
-        <v>5.07024867451321E-2</v>
+        <v>7.8933903831164304E-2</v>
       </c>
       <c r="D78">
-        <v>0.839610270166675</v>
+        <v>0.88183284084416802</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5.07024867451321E-2</v>
       </c>
       <c r="D79">
-        <v>0.51391886153268795</v>
+        <v>0.839610270166675</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80">
-        <v>0.14179745000856001</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0.62538208873149403</v>
+        <v>0.51391886153268795</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0.14179745000856001</v>
       </c>
       <c r="D81">
-        <v>0.82394773087328199</v>
+        <v>0.62538208873149403</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82">
-        <v>5.7436696658368799E-2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.77315160892961299</v>
+        <v>0.82394773087328199</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5.7436696658368799E-2</v>
       </c>
       <c r="D83">
-        <v>0.29939491343965602</v>
+        <v>0.77315160892961299</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -1770,26 +1816,26 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.344178695673582</v>
+        <v>0.29939491343965602</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1.3552289680173299E-3</v>
+        <v>0.344178695673582</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -1798,12 +1844,12 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>9.6667426037625804E-4</v>
+        <v>1.3552289680173299E-3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
@@ -1812,40 +1858,40 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1.64494140631179E-3</v>
+        <v>9.6667426037625804E-4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88">
-        <v>0.35759016387159398</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>1.3916398668568E-3</v>
+        <v>1.64494140631179E-3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.35759016387159398</v>
       </c>
       <c r="D89">
-        <v>6.4405339512665298E-4</v>
+        <v>1.3916398668568E-3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -1854,12 +1900,12 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>9.25519953306111E-4</v>
+        <v>6.4405339512665298E-4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -1868,12 +1914,12 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1.0275317622727299E-3</v>
+        <v>9.25519953306111E-4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -1882,12 +1928,12 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>8.3742175781408696E-4</v>
+        <v>1.0275317622727299E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -1896,12 +1942,12 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>8.9752722945893998E-4</v>
+        <v>8.3742175781408696E-4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -1910,26 +1956,26 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>6.79930135264117E-4</v>
+        <v>8.9752722945893998E-4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>4.7773611942691002E-4</v>
+        <v>6.79930135264117E-4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
@@ -1938,12 +1984,12 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>4.9147962608766995E-4</v>
+        <v>4.7773611942691002E-4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
@@ -1952,12 +1998,12 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>5.6841584602722903E-4</v>
+        <v>4.9147962608766995E-4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
@@ -1966,12 +2012,12 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>6.1383527138474797E-4</v>
+        <v>5.6841584602722903E-4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
@@ -1980,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>3.8232903304015697E-4</v>
+        <v>6.1383527138474797E-4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -1994,12 +2040,12 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>4.4795775994720002E-4</v>
+        <v>3.8232903304015697E-4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
@@ -2008,12 +2054,12 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>6.9373265397259902E-4</v>
+        <v>4.4795775994720002E-4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
@@ -2022,12 +2068,12 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2.7064563196644198E-4</v>
+        <v>6.9373265397259902E-4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -2036,12 +2082,12 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>5.1542069857139598E-4</v>
+        <v>2.7064563196644198E-4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
@@ -2050,26 +2096,26 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>4.9033827966448904E-4</v>
+        <v>5.1542069857139598E-4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.59221105395028195</v>
+        <v>4.9033827966448904E-4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
@@ -2078,40 +2124,40 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0.371907770137827</v>
+        <v>0.59221105395028195</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
       </c>
       <c r="C107">
-        <v>1.35654683527447E-2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.765770250874658</v>
+        <v>0.371907770137827</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>1.35654683527447E-2</v>
       </c>
       <c r="D108">
-        <v>0.58961315544694504</v>
+        <v>0.765770250874658</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -2120,12 +2166,12 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.97797467050338704</v>
+        <v>0.58961315544694504</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -2134,12 +2180,12 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.64425439129627005</v>
+        <v>0.97797467050338704</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
@@ -2148,12 +2194,12 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.477436332807054</v>
+        <v>0.64425439129627005</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
@@ -2162,12 +2208,12 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.57390932215961898</v>
+        <v>0.477436332807054</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>24</v>
@@ -2176,12 +2222,12 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0.55089950981885605</v>
+        <v>0.57390932215961898</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
         <v>24</v>
@@ -2190,26 +2236,26 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>0.50474491762598395</v>
+        <v>0.55089950981885605</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0.18043312830255501</v>
+        <v>0.50474491762598395</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -2218,12 +2264,12 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.29006280419375602</v>
+        <v>0.18043312830255501</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
@@ -2232,12 +2278,12 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.262785414167717</v>
+        <v>0.29006280419375602</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -2246,12 +2292,12 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0.27185462348126199</v>
+        <v>0.262785414167717</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>25</v>
@@ -2260,12 +2306,12 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0.22941221924854099</v>
+        <v>0.27185462348126199</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
         <v>25</v>
@@ -2274,40 +2320,40 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.20480146533064</v>
+        <v>0.22941221924854099</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
         <v>25</v>
       </c>
       <c r="C121">
-        <v>4.7075565974551398E-2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>0.186343620644838</v>
+        <v>0.20480146533064</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4.7075565974551398E-2</v>
       </c>
       <c r="D122">
-        <v>0.29473209854155802</v>
+        <v>0.186343620644838</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -2316,12 +2362,12 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.354078263422621</v>
+        <v>0.29473209854155802</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -2330,26 +2376,26 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.26540372548242802</v>
+        <v>0.354078263422621</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>3.5915755197646298E-3</v>
+        <v>0.26540372548242802</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
@@ -2358,40 +2404,40 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>6.4559437998310404E-3</v>
+        <v>3.5915755197646298E-3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
       </c>
       <c r="C127">
-        <v>0.51016439313565298</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>5.3641559243718098E-3</v>
+        <v>6.4559437998310404E-3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>26</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.51016439313565298</v>
       </c>
       <c r="D128">
-        <v>4.4122322034281696E-3</v>
+        <v>5.3641559243718098E-3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
@@ -2400,40 +2446,40 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>4.8698667188390096E-3</v>
+        <v>4.4122322034281696E-3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
       </c>
       <c r="C130">
-        <v>0.196250322369974</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>6.4889354277091601E-3</v>
+        <v>4.8698667188390096E-3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.196250322369974</v>
       </c>
       <c r="D131">
-        <v>5.8571382798261896E-3</v>
+        <v>6.4889354277091601E-3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
@@ -2442,12 +2488,12 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2.1845242160264899E-3</v>
+        <v>5.8571382798261896E-3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -2456,12 +2502,12 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1.00246176043878E-2</v>
+        <v>2.1845242160264899E-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
@@ -2470,26 +2516,26 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>8.7385560601383905E-3</v>
+        <v>1.00246176043878E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.51569144384667098</v>
+        <v>8.7385560601383905E-3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
         <v>27</v>
@@ -2498,40 +2544,40 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0.54030231835931797</v>
+        <v>0.51569144384667098</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
         <v>27</v>
       </c>
       <c r="C137">
-        <v>0.19270432098423401</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>0.62362523661249802</v>
+        <v>0.54030231835931797</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
         <v>27</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.19270432098423401</v>
       </c>
       <c r="D138">
-        <v>0.60481241298267296</v>
+        <v>0.62362523661249802</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>27</v>
@@ -2540,12 +2586,12 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.49095688009528698</v>
+        <v>0.60481241298267296</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
         <v>27</v>
@@ -2554,12 +2600,12 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.52929909957564703</v>
+        <v>0.49095688009528698</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>27</v>
@@ -2568,12 +2614,12 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.47654559460053197</v>
+        <v>0.52929909957564703</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
@@ -2582,12 +2628,12 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.642836402350351</v>
+        <v>0.47654559460053197</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -2596,12 +2642,12 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.44550028714732798</v>
+        <v>0.642836402350351</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
@@ -2610,26 +2656,26 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.58874321586739498</v>
+        <v>0.44550028714732798</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.14388081657878801</v>
+        <v>0.58874321586739498</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -2638,54 +2684,54 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.145836867985632</v>
+        <v>0.14388081657878801</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
         <v>28</v>
       </c>
       <c r="C147">
-        <v>0.19270432098423401</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>0.15166595756003501</v>
+        <v>0.145836867985632</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
         <v>28</v>
       </c>
       <c r="C148">
-        <v>0.152891205252324</v>
+        <v>0.19270432098423401</v>
       </c>
       <c r="D148">
-        <v>0.136144120821628</v>
+        <v>0.15166595756003501</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
         <v>28</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0.152891205252324</v>
       </c>
       <c r="D149">
-        <v>0.13629927369369799</v>
+        <v>0.136144120821628</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>28</v>
@@ -2694,12 +2740,12 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.19915213250102101</v>
+        <v>0.13629927369369799</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
         <v>28</v>
@@ -2708,12 +2754,12 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.12605415433523801</v>
+        <v>0.19915213250102101</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
         <v>28</v>
@@ -2722,12 +2768,12 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.127709882094727</v>
+        <v>0.12605415433523801</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
@@ -2736,12 +2782,12 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.112627142703997</v>
+        <v>0.127709882094727</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
@@ -2750,82 +2796,82 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>0.161933754509206</v>
+        <v>0.112627142703997</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C155">
-        <v>0.39542143388073903</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>1.9853646453603501E-2</v>
+        <v>0.161933754509206</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
         <v>29</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.39542143388073903</v>
       </c>
       <c r="D156">
-        <v>3.3384205408231701E-4</v>
+        <v>1.9853646453603501E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
       </c>
       <c r="C157">
-        <v>0.87390849407943205</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>1.8039839192758299E-4</v>
+        <v>3.3384205408231701E-4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
       </c>
       <c r="C158">
-        <v>0.467359928335213</v>
+        <v>0.87390849407943205</v>
       </c>
       <c r="D158">
-        <v>1.76979899819865E-2</v>
+        <v>1.8039839192758299E-4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0.467359928335213</v>
       </c>
       <c r="D159">
-        <v>1.28497069260653E-2</v>
+        <v>1.76979899819865E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>29</v>
@@ -2834,12 +2880,12 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3.1238077917702597E-4</v>
+        <v>1.28497069260653E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>29</v>
@@ -2848,12 +2894,12 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>4.9684148996504698E-4</v>
+        <v>3.1238077917702597E-4</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -2862,12 +2908,12 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1.16802419689766E-2</v>
+        <v>4.9684148996504698E-4</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
@@ -2876,40 +2922,40 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2.11001767005034E-2</v>
+        <v>1.16802419689766E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
       </c>
       <c r="C164">
-        <v>0.22598866169324899</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>2.8503992791810401E-2</v>
+        <v>2.11001767005034E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0.22598866169324899</v>
       </c>
       <c r="D165">
-        <v>1.07430983543675E-2</v>
+        <v>2.8503992791810401E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
         <v>30</v>
@@ -2918,152 +2964,152 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>9.5771890263142395E-2</v>
+        <v>1.07430983543675E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
         <v>30</v>
       </c>
       <c r="C167">
-        <v>1.6549940308018402E-2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>0.13781004651593401</v>
+        <v>9.5771890263142395E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
         <v>30</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>1.6549940308018402E-2</v>
       </c>
       <c r="D168">
-        <v>4.8333271720653902E-2</v>
+        <v>0.13781004651593401</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
         <v>30</v>
       </c>
       <c r="C169">
-        <v>5.98271416529913E-2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>4.4879050166376803E-3</v>
+        <v>4.8333271720653902E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
       </c>
       <c r="C170">
-        <v>0.279452650104212</v>
+        <v>5.98271416529913E-2</v>
       </c>
       <c r="D170">
-        <v>4.0518361086985498E-2</v>
+        <v>4.4879050166376803E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>30</v>
       </c>
       <c r="C171">
-        <v>0.21429520086241</v>
+        <v>0.279452650104212</v>
       </c>
       <c r="D171">
-        <v>0.17592970775324199</v>
+        <v>4.0518361086985498E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
         <v>30</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0.21429520086241</v>
       </c>
       <c r="D172">
-        <v>1.47419881695683E-2</v>
+        <v>0.17592970775324199</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
         <v>30</v>
       </c>
       <c r="C173">
-        <v>0.24123237890871499</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>3.3144738502049603E-2</v>
+        <v>1.47419881695683E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
         <v>30</v>
       </c>
       <c r="C174">
-        <v>0.37612592185989902</v>
+        <v>0.24123237890871499</v>
       </c>
       <c r="D174">
-        <v>2.5361766751605501E-2</v>
+        <v>3.3144738502049603E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C175">
-        <v>0.20187368829154201</v>
+        <v>0.37612592185989902</v>
       </c>
       <c r="D175">
-        <v>4.1788118844209902E-2</v>
+        <v>2.5361766751605501E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
         <v>31</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0.20187368829154201</v>
       </c>
       <c r="D176">
-        <v>4.2323142532960503E-2</v>
+        <v>4.1788118844209902E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
@@ -3072,124 +3118,124 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7.1439925288038303E-2</v>
+        <v>4.2323142532960503E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
         <v>31</v>
       </c>
       <c r="C178">
-        <v>0.51286079431257803</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>6.5340473976776295E-2</v>
+        <v>7.1439925288038303E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
         <v>31</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0.51286079431257803</v>
       </c>
       <c r="D179">
-        <v>4.6617258101628298E-2</v>
+        <v>6.5340473976776295E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
       </c>
       <c r="C180">
-        <v>0.24725594211584201</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>4.1957186034164103E-2</v>
+        <v>4.6617258101628298E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>31</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.24725594211584201</v>
       </c>
       <c r="D181">
-        <v>2.67913843409716E-2</v>
+        <v>4.1957186034164103E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
       </c>
       <c r="C182">
-        <v>0.104050541827969</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>6.1479602594704398E-2</v>
+        <v>2.67913843409716E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0.104050541827969</v>
       </c>
       <c r="D183">
-        <v>0.12387339419638101</v>
+        <v>6.1479602594704398E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
       </c>
       <c r="C184">
-        <v>0.33560443699015002</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>2.9519496026581101E-2</v>
+        <v>0.12387339419638101</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0.33560443699015002</v>
       </c>
       <c r="D185">
-        <v>5.6961739989739701E-3</v>
+        <v>2.9519496026581101E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>32</v>
@@ -3198,40 +3244,40 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5.1329979089330697E-3</v>
+        <v>5.6961739989739701E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
         <v>32</v>
       </c>
       <c r="C187">
-        <v>7.8933903831164304E-2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>6.5697013050649697E-3</v>
+        <v>5.1329979089330697E-3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>32</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>7.8933903831164304E-2</v>
       </c>
       <c r="D188">
-        <v>7.5756816474863596E-3</v>
+        <v>6.5697013050649697E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>32</v>
@@ -3240,12 +3286,12 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2.0170376890891102E-3</v>
+        <v>7.5756816474863596E-3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
         <v>32</v>
@@ -3254,12 +3300,12 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4.1206275865977599E-3</v>
+        <v>2.0170376890891102E-3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -3268,40 +3314,40 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4.5359670981320998E-3</v>
+        <v>4.1206275865977599E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>32</v>
       </c>
       <c r="C192">
-        <v>5.7436696658368799E-2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>4.0947441541036196E-3</v>
+        <v>4.5359670981320998E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
         <v>32</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>5.7436696658368799E-2</v>
       </c>
       <c r="D193">
-        <v>5.1586967861140696E-3</v>
+        <v>4.0947441541036196E-3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
         <v>32</v>
@@ -3310,26 +3356,26 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8.03777959199483E-3</v>
+        <v>5.1586967861140696E-3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>6.9676178402229796E-2</v>
+        <v>8.03777959199483E-3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>33</v>
@@ -3338,54 +3384,54 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.29003687545242401</v>
+        <v>6.9676178402229796E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>33</v>
       </c>
       <c r="C197">
-        <v>0.43499325288184498</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>9.4839030025910404E-2</v>
+        <v>0.29003687545242401</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>33</v>
       </c>
       <c r="C198">
-        <v>0.35759016387159398</v>
+        <v>0.43499325288184498</v>
       </c>
       <c r="D198">
-        <v>0.12192489633235901</v>
+        <v>9.4839030025910404E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
         <v>33</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0.35759016387159398</v>
       </c>
       <c r="D199">
-        <v>0.54000235921899797</v>
+        <v>0.12192489633235901</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
         <v>33</v>
@@ -3394,12 +3440,12 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>0.30144239069489398</v>
+        <v>0.54000235921899797</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
         <v>33</v>
@@ -3408,12 +3454,12 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2.03438982745319E-2</v>
+        <v>0.30144239069489398</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
         <v>33</v>
@@ -3422,12 +3468,12 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>0.200193307481039</v>
+        <v>2.03438982745319E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>33</v>
@@ -3436,12 +3482,12 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>5.1553167498992698E-2</v>
+        <v>0.200193307481039</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
         <v>33</v>
@@ -3450,166 +3496,166 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>9.3010960102158105E-2</v>
+        <v>5.1553167498992698E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>0.43791415571727499</v>
+        <v>9.3010960102158105E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
         <v>34</v>
       </c>
       <c r="C206">
-        <v>4.5790288862604202E-2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>0.30793712220757002</v>
+        <v>0.43791415571727499</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
         <v>34</v>
       </c>
       <c r="C207">
-        <v>4.7390895138065599E-3</v>
+        <v>4.5790288862604202E-2</v>
       </c>
       <c r="D207">
-        <v>0.30769797801158799</v>
+        <v>0.30793712220757002</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B208" t="s">
         <v>34</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>4.7390895138065599E-3</v>
       </c>
       <c r="D208">
-        <v>0.35050878875132102</v>
+        <v>0.30769797801158799</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
         <v>34</v>
       </c>
       <c r="C209">
-        <v>8.1890398652388896E-3</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>0.25119202671885299</v>
+        <v>0.35050878875132102</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
         <v>34</v>
       </c>
       <c r="C210">
-        <v>4.2743887378333997E-2</v>
+        <v>8.1890398652388896E-3</v>
       </c>
       <c r="D210">
-        <v>0.294789075200452</v>
+        <v>0.25119202671885299</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
         <v>34</v>
       </c>
       <c r="C211">
-        <v>3.1634427937719797E-2</v>
+        <v>4.2743887378333997E-2</v>
       </c>
       <c r="D211">
-        <v>0.25876611044551601</v>
+        <v>0.294789075200452</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
         <v>34</v>
       </c>
       <c r="C212">
-        <v>1.6756446242023E-2</v>
+        <v>3.1634427937719797E-2</v>
       </c>
       <c r="D212">
-        <v>0.341250867287062</v>
+        <v>0.25876611044551601</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B213" t="s">
         <v>34</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>1.6756446242023E-2</v>
       </c>
       <c r="D213">
-        <v>0.25294685492077501</v>
+        <v>0.341250867287062</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
         <v>34</v>
       </c>
       <c r="C214">
-        <v>6.0949468134677401E-2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>0.32194881337158299</v>
+        <v>0.25294685492077501</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>6.0949468134677401E-2</v>
       </c>
       <c r="D215">
-        <v>0.76043152038981798</v>
+        <v>0.32194881337158299</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>35</v>
@@ -3618,12 +3664,12 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>0.70495539492088699</v>
+        <v>0.76043152038981798</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
         <v>35</v>
@@ -3632,12 +3678,12 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>0.71114587098193305</v>
+        <v>0.70495539492088699</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
         <v>35</v>
@@ -3646,12 +3692,12 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>0.74476550771238204</v>
+        <v>0.71114587098193305</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
         <v>35</v>
@@ -3660,12 +3706,12 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>0.71248259260570201</v>
+        <v>0.74476550771238204</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
         <v>35</v>
@@ -3674,12 +3720,12 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0.71612115137233501</v>
+        <v>0.71248259260570201</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
         <v>35</v>
@@ -3688,12 +3734,12 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.73157045940126797</v>
+        <v>0.71612115137233501</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
         <v>35</v>
@@ -3702,12 +3748,12 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0.68976753370820898</v>
+        <v>0.73157045940126797</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B223" t="s">
         <v>35</v>
@@ -3716,12 +3762,12 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>0.76225102319641502</v>
+        <v>0.68976753370820898</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
         <v>35</v>
@@ -3730,250 +3776,250 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>0.758962990168077</v>
+        <v>0.76225102319641502</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C225">
-        <v>8.3055317342311405E-2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>0.161386647361422</v>
+        <v>0.758962990168077</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
         <v>36</v>
       </c>
       <c r="C226">
-        <v>0.110582708720214</v>
+        <v>8.3055317342311405E-2</v>
       </c>
       <c r="D226">
-        <v>0.14447313296648401</v>
+        <v>0.161386647361422</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>36</v>
       </c>
       <c r="C227">
-        <v>4.1202679855959198E-2</v>
+        <v>0.110582708720214</v>
       </c>
       <c r="D227">
-        <v>0.222579736343859</v>
+        <v>0.14447313296648401</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B228" t="s">
         <v>36</v>
       </c>
       <c r="C228">
-        <v>0.24161063044032599</v>
+        <v>4.1202679855959198E-2</v>
       </c>
       <c r="D228">
-        <v>0.220144676305458</v>
+        <v>0.222579736343859</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
         <v>36</v>
       </c>
       <c r="C229">
-        <v>1.64884479832085E-4</v>
+        <v>0.24161063044032599</v>
       </c>
       <c r="D229">
-        <v>0.37444773956316202</v>
+        <v>0.220144676305458</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
         <v>36</v>
       </c>
       <c r="C230">
-        <v>0.10346626801589801</v>
+        <v>1.64884479832085E-4</v>
       </c>
       <c r="D230">
-        <v>0.13523093319959001</v>
+        <v>0.37444773956316202</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
         <v>36</v>
       </c>
       <c r="C231">
-        <v>7.7225445146251598E-2</v>
+        <v>0.10346626801589801</v>
       </c>
       <c r="D231">
-        <v>0.16451661234092799</v>
+        <v>0.13523093319959001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
         <v>36</v>
       </c>
       <c r="C232">
-        <v>4.1369298087449602E-2</v>
+        <v>7.7225445146251598E-2</v>
       </c>
       <c r="D232">
-        <v>8.0375972135082893E-2</v>
+        <v>0.16451661234092799</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
         <v>36</v>
       </c>
       <c r="C233">
-        <v>8.7891002619287395E-2</v>
+        <v>4.1369298087449602E-2</v>
       </c>
       <c r="D233">
-        <v>0.19954763170973999</v>
+        <v>8.0375972135082893E-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
         <v>36</v>
       </c>
       <c r="C234">
-        <v>0.14549028789926299</v>
+        <v>8.7891002619287395E-2</v>
       </c>
       <c r="D234">
-        <v>0.16451046740276101</v>
+        <v>0.19954763170973999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C235">
-        <v>0.40583002149051101</v>
+        <v>0.14549028789926299</v>
       </c>
       <c r="D235">
-        <v>4.8869398720649201E-3</v>
+        <v>0.16451046740276101</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
         <v>37</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0.40583002149051101</v>
       </c>
       <c r="D236">
-        <v>5.2097880759030503E-3</v>
+        <v>4.8869398720649201E-3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
         <v>37</v>
       </c>
       <c r="C237">
-        <v>0.34170577052218798</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>2.92716126190622E-3</v>
+        <v>5.2097880759030503E-3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B238" t="s">
         <v>37</v>
       </c>
       <c r="C238">
-        <v>0.48521989806610499</v>
+        <v>0.34170577052218798</v>
       </c>
       <c r="D238">
-        <v>4.4796233076945299E-3</v>
+        <v>2.92716126190622E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
         <v>37</v>
       </c>
       <c r="C239">
-        <v>0.11611761204985201</v>
+        <v>0.48521989806610499</v>
       </c>
       <c r="D239">
-        <v>2.0794983390940601E-3</v>
+        <v>4.4796233076945299E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
         <v>37</v>
       </c>
       <c r="C240">
-        <v>0.48094567101802499</v>
+        <v>0.11611761204985201</v>
       </c>
       <c r="D240">
-        <v>1.8820835196766399E-3</v>
+        <v>2.0794983390940601E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
         <v>37</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0.48094567101802499</v>
       </c>
       <c r="D241">
-        <v>1.98779779468021E-3</v>
+        <v>1.8820835196766399E-3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
         <v>37</v>
@@ -3982,12 +4028,12 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3.0069315795910399E-2</v>
+        <v>1.98779779468021E-3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B243" t="s">
         <v>37</v>
@@ -3996,40 +4042,40 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3.5278141469581E-3</v>
+        <v>3.0069315795910399E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B244" t="s">
         <v>37</v>
       </c>
       <c r="C244">
-        <v>0.61092660499027596</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>3.9719302640438799E-3</v>
+        <v>3.5278141469581E-3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0.61092660499027596</v>
       </c>
       <c r="D245">
-        <v>0.60155311486534302</v>
+        <v>3.9719302640438799E-3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
@@ -4038,12 +4084,12 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>0.57589361990134902</v>
+        <v>0.60155311486534302</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
@@ -4052,12 +4098,12 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>0.65732019022114696</v>
+        <v>0.57589361990134902</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
@@ -4066,12 +4112,12 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0.65139878547571795</v>
+        <v>0.65732019022114696</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
@@ -4080,12 +4126,12 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>0.91448861287237904</v>
+        <v>0.65139878547571795</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
@@ -4094,12 +4140,12 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0.65137539370270203</v>
+        <v>0.91448861287237904</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
@@ -4108,12 +4154,12 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>0.70403221943293903</v>
+        <v>0.65137539370270203</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
@@ -4122,12 +4168,12 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>0.63620952724670599</v>
+        <v>0.70403221943293903</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
@@ -4136,12 +4182,12 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0.632181238646499</v>
+        <v>0.63620952724670599</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
@@ -4150,26 +4196,26 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>0.77002131262592799</v>
+        <v>0.632181238646499</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.68541364036663399</v>
+        <v>0.77002131262592799</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B256" t="s">
         <v>39</v>
@@ -4178,12 +4224,12 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.79519974474573196</v>
+        <v>0.68541364036663399</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
         <v>39</v>
@@ -4192,12 +4238,12 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>0.79626532386674997</v>
+        <v>0.79519974474573196</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B258" t="s">
         <v>39</v>
@@ -4206,12 +4252,12 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>0.78315782569999404</v>
+        <v>0.79626532386674997</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
         <v>39</v>
@@ -4220,12 +4266,12 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>0.60531524374363999</v>
+        <v>0.78315782569999404</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B260" t="s">
         <v>39</v>
@@ -4234,12 +4280,12 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>0.74332847107926703</v>
+        <v>0.60531524374363999</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -4248,12 +4294,12 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>0.64530841379188497</v>
+        <v>0.74332847107926703</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
         <v>39</v>
@@ -4262,82 +4308,82 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>0.530205416347031</v>
+        <v>0.64530841379188497</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B263" t="s">
         <v>39</v>
       </c>
       <c r="C263">
-        <v>1.8229031420410002E-2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>0.642289979078979</v>
+        <v>0.530205416347031</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B264" t="s">
         <v>39</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>1.8229031420410002E-2</v>
       </c>
       <c r="D264">
-        <v>0.72140754138888996</v>
+        <v>0.642289979078979</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>0.75365254967498496</v>
+        <v>0.72140754138888996</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B266" t="s">
         <v>40</v>
       </c>
       <c r="C266">
-        <v>6.7894767705759904E-2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>0.80684722146473697</v>
+        <v>0.75365254967498496</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
         <v>40</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>6.7894767705759904E-2</v>
       </c>
       <c r="D267">
-        <v>0.91595611363100304</v>
+        <v>0.80684722146473697</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
         <v>40</v>
@@ -4346,12 +4392,12 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0.94209420128534505</v>
+        <v>0.91595611363100304</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
         <v>40</v>
@@ -4360,12 +4406,12 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0.85443595647884296</v>
+        <v>0.94209420128534505</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B270" t="s">
         <v>40</v>
@@ -4374,12 +4420,12 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.84233634709432104</v>
+        <v>0.85443595647884296</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B271" t="s">
         <v>40</v>
@@ -4388,12 +4434,12 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0.78315628597849896</v>
+        <v>0.84233634709432104</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
         <v>40</v>
@@ -4402,12 +4448,12 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>0.87967964966948897</v>
+        <v>0.78315628597849896</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B273" t="s">
         <v>40</v>
@@ -4416,12 +4462,12 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>0.92742938969353605</v>
+        <v>0.87967964966948897</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B274" t="s">
         <v>40</v>
@@ -4430,68 +4476,68 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>0.79868103502459897</v>
+        <v>0.92742938969353605</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C275">
-        <v>0.114318387654297</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>0.25898703236182602</v>
+        <v>0.79868103502459897</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B276" t="s">
         <v>41</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>0.114318387654297</v>
       </c>
       <c r="D276">
-        <v>0.47545338900398698</v>
+        <v>0.25898703236182602</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
         <v>41</v>
       </c>
       <c r="C277">
-        <v>7.8933903831164304E-2</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>0.60391955489563098</v>
+        <v>0.47545338900398698</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B278" t="s">
         <v>41</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>7.8933903831164304E-2</v>
       </c>
       <c r="D278">
-        <v>0.577502884161049</v>
+        <v>0.60391955489563098</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B279" t="s">
         <v>41</v>
@@ -4500,12 +4546,12 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>0.837865591830944</v>
+        <v>0.577502884161049</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B280" t="s">
         <v>41</v>
@@ -4514,12 +4560,12 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>0.33238468255722797</v>
+        <v>0.837865591830944</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B281" t="s">
         <v>41</v>
@@ -4528,40 +4574,40 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0.45229180000208802</v>
+        <v>0.33238468255722797</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
         <v>41</v>
       </c>
       <c r="C282">
-        <v>5.7436696658368799E-2</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>0.53180205703454997</v>
+        <v>0.45229180000208802</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B283" t="s">
         <v>41</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>5.7436696658368799E-2</v>
       </c>
       <c r="D283">
-        <v>0.51350407202741499</v>
+        <v>0.53180205703454997</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
         <v>41</v>
@@ -4570,26 +4616,26 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>0.43177257226611798</v>
+        <v>0.51350407202741499</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>0.77925414938839799</v>
+        <v>0.43177257226611798</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B286" t="s">
         <v>42</v>
@@ -4598,12 +4644,12 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.82791351492333898</v>
+        <v>0.77925414938839799</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B287" t="s">
         <v>42</v>
@@ -4612,12 +4658,12 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>0.84832841716493801</v>
+        <v>0.82791351492333898</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B288" t="s">
         <v>42</v>
@@ -4626,12 +4672,12 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>0.841277205910819</v>
+        <v>0.84832841716493801</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
         <v>42</v>
@@ -4640,12 +4686,12 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0.83540976828315405</v>
+        <v>0.841277205910819</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B290" t="s">
         <v>42</v>
@@ -4654,12 +4700,12 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>0.828738355271877</v>
+        <v>0.83540976828315405</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B291" t="s">
         <v>42</v>
@@ -4668,12 +4714,12 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>0.822944053425952</v>
+        <v>0.828738355271877</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
         <v>42</v>
@@ -4682,12 +4728,12 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>0.79619858797340104</v>
+        <v>0.822944053425952</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B293" t="s">
         <v>42</v>
@@ -4696,12 +4742,12 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>0.85585241556110703</v>
+        <v>0.79619858797340104</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B294" t="s">
         <v>42</v>
@@ -4710,26 +4756,26 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>0.823421253057251</v>
+        <v>0.85585241556110703</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>0.86503447288212498</v>
+        <v>0.823421253057251</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B296" t="s">
         <v>43</v>
@@ -4738,12 +4784,12 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.85586970048528099</v>
+        <v>0.86503447288212498</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
         <v>43</v>
@@ -4752,12 +4798,12 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>0.85499369808346803</v>
+        <v>0.85586970048528099</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B298" t="s">
         <v>43</v>
@@ -4766,12 +4812,12 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>0.86568207625426696</v>
+        <v>0.85499369808346803</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
         <v>43</v>
@@ -4780,12 +4826,12 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>0.76916945556050598</v>
+        <v>0.86568207625426696</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B300" t="s">
         <v>43</v>
@@ -4794,12 +4840,12 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>0.859037260710383</v>
+        <v>0.76916945556050598</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B301" t="s">
         <v>43</v>
@@ -4808,12 +4854,12 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>0.87006620505829801</v>
+        <v>0.859037260710383</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
         <v>43</v>
@@ -4822,12 +4868,12 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>0.82142213281621501</v>
+        <v>0.87006620505829801</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B303" t="s">
         <v>43</v>
@@ -4836,12 +4882,12 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>0.84893143577051</v>
+        <v>0.82142213281621501</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B304" t="s">
         <v>43</v>
@@ -4850,82 +4896,82 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>0.85238202192510604</v>
+        <v>0.84893143577051</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C305">
-        <v>0.14451865955363299</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>0.53294392772017896</v>
+        <v>0.85238202192510604</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
         <v>44</v>
       </c>
       <c r="C306">
-        <v>0.190195115376076</v>
+        <v>0.14451865955363299</v>
       </c>
       <c r="D306">
-        <v>0.56859296960772998</v>
+        <v>0.53294392772017896</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
         <v>44</v>
       </c>
       <c r="C307">
-        <v>1.9987822082677801E-2</v>
+        <v>0.190195115376076</v>
       </c>
       <c r="D307">
-        <v>0.73401855523957404</v>
+        <v>0.56859296960772998</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
         <v>44</v>
       </c>
       <c r="C308">
-        <v>8.0960417841967905E-2</v>
+        <v>1.9987822082677801E-2</v>
       </c>
       <c r="D308">
-        <v>0.713856292591038</v>
+        <v>0.73401855523957404</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B309" t="s">
         <v>44</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>8.0960417841967905E-2</v>
       </c>
       <c r="D309">
-        <v>0.69009279660938505</v>
+        <v>0.713856292591038</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B310" t="s">
         <v>44</v>
@@ -4934,82 +4980,82 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>0.673285542074198</v>
+        <v>0.69009279660938505</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B311" t="s">
         <v>44</v>
       </c>
       <c r="C311">
-        <v>0.13470236217018899</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>0.47483157259528502</v>
+        <v>0.673285542074198</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B312" t="s">
         <v>44</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0.13470236217018899</v>
       </c>
       <c r="D312">
-        <v>0.77561237640329805</v>
+        <v>0.47483157259528502</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B313" t="s">
         <v>44</v>
       </c>
       <c r="C313">
-        <v>0.152623159619517</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>0.83060834339801604</v>
+        <v>0.77561237640329805</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B314" t="s">
         <v>44</v>
       </c>
       <c r="C314">
-        <v>2.1557627640847298E-3</v>
+        <v>0.152623159619517</v>
       </c>
       <c r="D314">
-        <v>0.46160278588690501</v>
+        <v>0.83060834339801604</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2.1557627640847298E-3</v>
       </c>
       <c r="D315">
-        <v>0.652213461140006</v>
+        <v>0.46160278588690501</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B316" t="s">
         <v>45</v>
@@ -5018,12 +5064,12 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>0.67310661859445498</v>
+        <v>0.652213461140006</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
         <v>45</v>
@@ -5032,12 +5078,12 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>0.73144915054112103</v>
+        <v>0.67310661859445498</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
         <v>45</v>
@@ -5046,12 +5092,12 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>0.719033243194379</v>
+        <v>0.73144915054112103</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
         <v>45</v>
@@ -5060,40 +5106,40 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>0.92356440619463798</v>
+        <v>0.719033243194379</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B320" t="s">
         <v>45</v>
       </c>
       <c r="C320">
-        <v>2.1604777979745599E-2</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>0.66735098358029299</v>
+        <v>0.92356440619463798</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B321" t="s">
         <v>45</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>2.1604777979745599E-2</v>
       </c>
       <c r="D321">
-        <v>0.70762147889723703</v>
+        <v>0.66735098358029299</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B322" t="s">
         <v>45</v>
@@ -5102,12 +5148,12 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>0.85295959960745404</v>
+        <v>0.70762147889723703</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B323" t="s">
         <v>45</v>
@@ -5116,12 +5162,12 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>0.73954301993629201</v>
+        <v>0.85295959960745404</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B324" t="s">
         <v>45</v>
@@ -5130,166 +5176,166 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>0.76848051293117303</v>
+        <v>0.73954301993629201</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B325" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C325">
-        <v>8.7382154082823104E-4</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>0.25791684536505799</v>
+        <v>0.76848051293117303</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B326" t="s">
         <v>46</v>
       </c>
       <c r="C326">
-        <v>1.5813311762926301E-3</v>
+        <v>8.7382154082823104E-4</v>
       </c>
       <c r="D326">
-        <v>0.32176901744328801</v>
+        <v>0.25791684536505799</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
         <v>46</v>
       </c>
       <c r="C327">
-        <v>3.259000943375E-4</v>
+        <v>1.5813311762926301E-3</v>
       </c>
       <c r="D327">
-        <v>0.335978796676074</v>
+        <v>0.32176901744328801</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B328" t="s">
         <v>46</v>
       </c>
       <c r="C328">
-        <v>8.3660839878034899E-3</v>
+        <v>3.259000943375E-4</v>
       </c>
       <c r="D328">
-        <v>0.3303169850971</v>
+        <v>0.335978796676074</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B329" t="s">
         <v>46</v>
       </c>
       <c r="C329">
-        <v>4.9730058907713302E-5</v>
+        <v>8.3660839878034899E-3</v>
       </c>
       <c r="D329">
-        <v>0.48163584827386702</v>
+        <v>0.3303169850971</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B330" t="s">
         <v>46</v>
       </c>
       <c r="C330">
-        <v>1.3769790678773101E-3</v>
+        <v>4.9730058907713302E-5</v>
       </c>
       <c r="D330">
-        <v>0.30741438446200098</v>
+        <v>0.48163584827386702</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B331" t="s">
         <v>46</v>
       </c>
       <c r="C331">
-        <v>7.5215186405630096E-4</v>
+        <v>1.3769790678773101E-3</v>
       </c>
       <c r="D331">
-        <v>0.25447867559707299</v>
+        <v>0.30741438446200098</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B332" t="s">
         <v>46</v>
       </c>
       <c r="C332">
-        <v>2.0988667117249801E-4</v>
+        <v>7.5215186405630096E-4</v>
       </c>
       <c r="D332">
-        <v>0.434113614015046</v>
+        <v>0.25447867559707299</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B333" t="s">
         <v>46</v>
       </c>
       <c r="C333">
-        <v>5.3698996747724201E-2</v>
+        <v>2.0988667117249801E-4</v>
       </c>
       <c r="D333">
-        <v>0.39257394434852599</v>
+        <v>0.434113614015046</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B334" t="s">
         <v>46</v>
       </c>
       <c r="C334">
-        <v>9.0018917934279005E-2</v>
+        <v>5.3698996747724201E-2</v>
       </c>
       <c r="D334">
-        <v>0.29527914387156901</v>
+        <v>0.39257394434852599</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B335" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>9.0018917934279005E-2</v>
       </c>
       <c r="D335">
-        <v>0.43266074634035501</v>
+        <v>0.29527914387156901</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B336" t="s">
         <v>47</v>
@@ -5298,54 +5344,54 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>0.50122823478289502</v>
+        <v>0.43266074634035501</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
         <v>47</v>
       </c>
       <c r="C337">
-        <v>6.8865229810438897E-2</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>0.6023256855111</v>
+        <v>0.50122823478289502</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B338" t="s">
         <v>47</v>
       </c>
       <c r="C338">
-        <v>5.3804206699558502E-2</v>
+        <v>6.8865229810438897E-2</v>
       </c>
       <c r="D338">
-        <v>0.604308610870957</v>
+        <v>0.6023256855111</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
         <v>47</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>5.3804206699558502E-2</v>
       </c>
       <c r="D339">
-        <v>0.72189919083800402</v>
+        <v>0.604308610870957</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B340" t="s">
         <v>47</v>
@@ -5354,12 +5400,12 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>0.51309186297563203</v>
+        <v>0.72189919083800402</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B341" t="s">
         <v>47</v>
@@ -5368,12 +5414,12 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>0.50903832205545296</v>
+        <v>0.51309186297563203</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B342" t="s">
         <v>47</v>
@@ -5382,12 +5428,12 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>0.63217113042804496</v>
+        <v>0.50903832205545296</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B343" t="s">
         <v>47</v>
@@ -5396,12 +5442,12 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>0.66267719019302196</v>
+        <v>0.63217113042804496</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B344" t="s">
         <v>47</v>
@@ -5410,26 +5456,26 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>0.50516166825363396</v>
+        <v>0.66267719019302196</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B345" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
       <c r="D345">
-        <v>0.17332303144253999</v>
+        <v>0.50516166825363396</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B346" t="s">
         <v>48</v>
@@ -5438,40 +5484,40 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>0.23540328867900001</v>
+        <v>0.17332303144253999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347" t="s">
         <v>48</v>
       </c>
       <c r="C347">
-        <v>0.13299137010707099</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>0.22104777232440301</v>
+        <v>0.23540328867900001</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B348" t="s">
         <v>48</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0.13299137010707099</v>
       </c>
       <c r="D348">
-        <v>0.209888075065638</v>
+        <v>0.22104777232440301</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B349" t="s">
         <v>48</v>
@@ -5480,12 +5526,12 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>0.148322439919892</v>
+        <v>0.209888075065638</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B350" t="s">
         <v>48</v>
@@ -5494,40 +5540,40 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>0.23521104106132201</v>
+        <v>0.148322439919892</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B351" t="s">
         <v>48</v>
       </c>
       <c r="C351">
-        <v>3.1634427937719797E-2</v>
+        <v>1</v>
       </c>
       <c r="D351">
-        <v>0.197482518175636</v>
+        <v>0.23521104106132201</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B352" t="s">
         <v>48</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>3.1634427937719797E-2</v>
       </c>
       <c r="D352">
-        <v>0.203344073817365</v>
+        <v>0.197482518175636</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B353" t="s">
         <v>48</v>
@@ -5536,12 +5582,12 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>0.19705833458219699</v>
+        <v>0.203344073817365</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B354" t="s">
         <v>48</v>
@@ -5550,166 +5596,166 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>0.21722668626185199</v>
+        <v>0.19705833458219699</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C355">
-        <v>0.121167082422612</v>
+        <v>1</v>
       </c>
       <c r="D355">
-        <v>5.7550136184206798E-5</v>
+        <v>0.21722668626185199</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B356" t="s">
         <v>49</v>
       </c>
       <c r="C356">
-        <v>4.6767247100986301E-2</v>
+        <v>0.121167082422612</v>
       </c>
       <c r="D356">
-        <v>1.7545226261242501E-4</v>
+        <v>5.7550136184206798E-5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B357" t="s">
         <v>49</v>
       </c>
       <c r="C357">
-        <v>4.6592531149307299E-4</v>
+        <v>4.6767247100986301E-2</v>
       </c>
       <c r="D357">
-        <v>2.46779682684769E-5</v>
+        <v>1.7545226261242501E-4</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B358" t="s">
         <v>49</v>
       </c>
       <c r="C358">
-        <v>0.56866362050713104</v>
+        <v>4.6592531149307299E-4</v>
       </c>
       <c r="D358">
-        <v>7.0651684590534094E-5</v>
+        <v>2.46779682684769E-5</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B359" t="s">
         <v>49</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>0.56866362050713104</v>
       </c>
       <c r="D359">
-        <v>3.6984890086404603E-5</v>
+        <v>7.0651684590534094E-5</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B360" t="s">
         <v>49</v>
       </c>
       <c r="C360">
-        <v>0.174489879951294</v>
+        <v>1</v>
       </c>
       <c r="D360">
-        <v>8.2086594293670102E-5</v>
+        <v>3.6984890086404603E-5</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B361" t="s">
         <v>49</v>
       </c>
       <c r="C361">
-        <v>0.43052172669045702</v>
+        <v>0.174489879951294</v>
       </c>
       <c r="D361">
-        <v>5.3884522414512102E-5</v>
+        <v>8.2086594293670102E-5</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B362" t="s">
         <v>49</v>
       </c>
       <c r="C362">
-        <v>3.1402776390683199E-3</v>
+        <v>0.43052172669045702</v>
       </c>
       <c r="D362">
-        <v>2.5388718490617599E-4</v>
+        <v>5.3884522414512102E-5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B363" t="s">
         <v>49</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>3.1402776390683199E-3</v>
       </c>
       <c r="D363">
-        <v>3.6341798271303199E-6</v>
+        <v>2.5388718490617599E-4</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B364" t="s">
         <v>49</v>
       </c>
       <c r="C364">
-        <v>2.2265851217076801E-2</v>
+        <v>1</v>
       </c>
       <c r="D364">
-        <v>4.5649046684804101E-4</v>
+        <v>3.6341798271303199E-6</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>2.2265851217076801E-2</v>
       </c>
       <c r="D365">
-        <v>0.63823661461849102</v>
+        <v>4.5649046684804101E-4</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B366" t="s">
         <v>50</v>
@@ -5718,12 +5764,12 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>0.73957010584832905</v>
+        <v>0.63823661461849102</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B367" t="s">
         <v>50</v>
@@ -5732,12 +5778,12 @@
         <v>1</v>
       </c>
       <c r="D367">
-        <v>0.86672364474350505</v>
+        <v>0.73957010584832905</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B368" t="s">
         <v>50</v>
@@ -5746,12 +5792,12 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>0.88440757834868799</v>
+        <v>0.86672364474350505</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B369" t="s">
         <v>50</v>
@@ -5760,12 +5806,12 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>0.84117165258035598</v>
+        <v>0.88440757834868799</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B370" t="s">
         <v>50</v>
@@ -5774,12 +5820,12 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>0.70151811157578703</v>
+        <v>0.84117165258035598</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B371" t="s">
         <v>50</v>
@@ -5788,12 +5834,12 @@
         <v>1</v>
       </c>
       <c r="D371">
-        <v>0.77862622944684001</v>
+        <v>0.70151811157578703</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B372" t="s">
         <v>50</v>
@@ -5802,12 +5848,12 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>0.644672839459562</v>
+        <v>0.77862622944684001</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B373" t="s">
         <v>50</v>
@@ -5816,12 +5862,12 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>0.72955845961281096</v>
+        <v>0.644672839459562</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B374" t="s">
         <v>50</v>
@@ -5830,82 +5876,82 @@
         <v>1</v>
       </c>
       <c r="D374">
-        <v>0.63390964833682995</v>
+        <v>0.72955845961281096</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
       <c r="D375">
-        <v>2.0710258317299601E-14</v>
+        <v>0.63390964833682995</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B376" t="s">
         <v>51</v>
       </c>
       <c r="C376">
-        <v>0.32292155349547103</v>
+        <v>1</v>
       </c>
       <c r="D376">
-        <v>8.3931213136675303E-15</v>
+        <v>2.0710258317299601E-14</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B377" t="s">
         <v>51</v>
       </c>
       <c r="C377">
-        <v>0.67863134393600799</v>
+        <v>0.32292155349547103</v>
       </c>
       <c r="D377">
-        <v>3.2964170362180298E-15</v>
+        <v>8.3931213136675303E-15</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>51</v>
       </c>
       <c r="C378">
-        <v>0.93726979027126001</v>
+        <v>0.67863134393600799</v>
       </c>
       <c r="D378">
-        <v>3.5048089246122E-15</v>
+        <v>3.2964170362180298E-15</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B379" t="s">
         <v>51</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>0.93726979027126001</v>
       </c>
       <c r="D379">
-        <v>2.2274147464447301E-15</v>
+        <v>3.5048089246122E-15</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B380" t="s">
         <v>51</v>
@@ -5914,12 +5960,12 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>1.76889637272123E-15</v>
+        <v>2.2274147464447301E-15</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B381" t="s">
         <v>51</v>
@@ -5928,68 +5974,68 @@
         <v>1</v>
       </c>
       <c r="D381">
-        <v>6.9211412929184399E-15</v>
+        <v>1.76889637272123E-15</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B382" t="s">
         <v>51</v>
       </c>
       <c r="C382">
-        <v>0.34491501802683899</v>
+        <v>1</v>
       </c>
       <c r="D382">
-        <v>2.93207886645269E-15</v>
+        <v>6.9211412929184399E-15</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B383" t="s">
         <v>51</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>0.34491501802683899</v>
       </c>
       <c r="D383">
-        <v>4.4536984888681803E-15</v>
+        <v>2.93207886645269E-15</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B384" t="s">
         <v>51</v>
       </c>
       <c r="C384">
-        <v>0.792815144625726</v>
+        <v>1</v>
       </c>
       <c r="D384">
-        <v>7.2947597767303793E-15</v>
+        <v>4.4536984888681803E-15</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B385" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>0.792815144625726</v>
       </c>
       <c r="D385">
-        <v>0.28961159193275798</v>
+        <v>7.2947597767303793E-15</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B386" t="s">
         <v>52</v>
@@ -5998,12 +6044,12 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>0.20020404273272799</v>
+        <v>0.28961159193275798</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B387" t="s">
         <v>52</v>
@@ -6012,12 +6058,12 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>0.117764093881674</v>
+        <v>0.20020404273272799</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
         <v>52</v>
@@ -6026,12 +6072,12 @@
         <v>1</v>
       </c>
       <c r="D388">
-        <v>0.155429167930035</v>
+        <v>0.117764093881674</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B389" t="s">
         <v>52</v>
@@ -6040,12 +6086,12 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>6.7894467916753298E-2</v>
+        <v>0.155429167930035</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B390" t="s">
         <v>52</v>
@@ -6054,12 +6100,12 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>0.15885548603997099</v>
+        <v>6.7894467916753298E-2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B391" t="s">
         <v>52</v>
@@ -6068,12 +6114,12 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>0.16860600698793801</v>
+        <v>0.15885548603997099</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B392" t="s">
         <v>52</v>
@@ -6082,12 +6128,12 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>0.150163185506205</v>
+        <v>0.16860600698793801</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B393" t="s">
         <v>52</v>
@@ -6096,12 +6142,12 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>0.128253164528425</v>
+        <v>0.150163185506205</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B394" t="s">
         <v>52</v>
@@ -6110,26 +6156,26 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>0.22813974943415399</v>
+        <v>0.128253164528425</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B395" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395">
-        <v>4.5189525905546004E-6</v>
+        <v>0.22813974943415399</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B396" t="s">
         <v>53</v>
@@ -6138,54 +6184,54 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>4.1299771126203197E-6</v>
+        <v>4.5189525905546004E-6</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B397" t="s">
         <v>53</v>
       </c>
       <c r="C397">
-        <v>7.6060989702337703E-5</v>
+        <v>1</v>
       </c>
       <c r="D397">
-        <v>4.49754626632349E-6</v>
+        <v>4.1299771126203197E-6</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
         <v>53</v>
       </c>
       <c r="C398">
-        <v>0.23188777826874299</v>
+        <v>7.6060989702337703E-5</v>
       </c>
       <c r="D398">
-        <v>4.2089213995783497E-6</v>
+        <v>4.49754626632349E-6</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B399" t="s">
         <v>53</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0.23188777826874299</v>
       </c>
       <c r="D399">
-        <v>1.5774602375124399E-6</v>
+        <v>4.2089213995783497E-6</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B400" t="s">
         <v>53</v>
@@ -6194,12 +6240,12 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>6.9951323477934402E-6</v>
+        <v>1.5774602375124399E-6</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B401" t="s">
         <v>53</v>
@@ -6208,12 +6254,12 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>1.6787760275879699E-6</v>
+        <v>6.9951323477934402E-6</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B402" t="s">
         <v>53</v>
@@ -6222,12 +6268,12 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>4.8646388971714403E-6</v>
+        <v>1.6787760275879699E-6</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B403" t="s">
         <v>53</v>
@@ -6236,12 +6282,12 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>1.4211766954115601E-6</v>
+        <v>4.8646388971714403E-6</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B404" t="s">
         <v>53</v>
@@ -6250,26 +6296,26 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>3.15769776617737E-6</v>
+        <v>1.4211766954115601E-6</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B405" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
       <c r="D405">
-        <v>0.90386810000354101</v>
+        <v>3.15769776617737E-6</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B406" t="s">
         <v>54</v>
@@ -6278,12 +6324,12 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>0.93176832522980402</v>
+        <v>0.90386810000354101</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B407" t="s">
         <v>54</v>
@@ -6292,12 +6338,12 @@
         <v>1</v>
       </c>
       <c r="D407">
-        <v>0.94410557629188996</v>
+        <v>0.93176832522980402</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B408" t="s">
         <v>54</v>
@@ -6306,12 +6352,12 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <v>0.93579464203057094</v>
+        <v>0.94410557629188996</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B409" t="s">
         <v>54</v>
@@ -6320,12 +6366,12 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>0.90569653297374697</v>
+        <v>0.93579464203057094</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B410" t="s">
         <v>54</v>
@@ -6334,12 +6380,12 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>0.924634351745102</v>
+        <v>0.90569653297374697</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B411" t="s">
         <v>54</v>
@@ -6348,12 +6394,12 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>0.79583879811900404</v>
+        <v>0.924634351745102</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B412" t="s">
         <v>54</v>
@@ -6362,12 +6408,12 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>0.91941157254541195</v>
+        <v>0.79583879811900404</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B413" t="s">
         <v>54</v>
@@ -6376,12 +6422,12 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>0.94080229886522604</v>
+        <v>0.91941157254541195</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B414" t="s">
         <v>54</v>
@@ -6390,26 +6436,26 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>0.92204881007040895</v>
+        <v>0.94080229886522604</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B415" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C415">
         <v>1</v>
       </c>
       <c r="D415">
-        <v>1.14776491621179E-2</v>
+        <v>0.92204881007040895</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B416" t="s">
         <v>55</v>
@@ -6418,12 +6464,12 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>1.40020613193191E-2</v>
+        <v>1.14776491621179E-2</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B417" t="s">
         <v>55</v>
@@ -6432,12 +6478,12 @@
         <v>1</v>
       </c>
       <c r="D417">
-        <v>2.5099925480397599E-2</v>
+        <v>1.40020613193191E-2</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B418" t="s">
         <v>55</v>
@@ -6446,12 +6492,12 @@
         <v>1</v>
       </c>
       <c r="D418">
-        <v>2.1230294724980801E-2</v>
+        <v>2.5099925480397599E-2</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B419" t="s">
         <v>55</v>
@@ -6460,12 +6506,12 @@
         <v>1</v>
       </c>
       <c r="D419">
-        <v>3.08931894540578E-2</v>
+        <v>2.1230294724980801E-2</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B420" t="s">
         <v>55</v>
@@ -6474,12 +6520,12 @@
         <v>1</v>
       </c>
       <c r="D420">
-        <v>1.6125450838072999E-2</v>
+        <v>3.08931894540578E-2</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B421" t="s">
         <v>55</v>
@@ -6488,12 +6534,12 @@
         <v>1</v>
       </c>
       <c r="D421">
-        <v>1.18148854946234E-2</v>
+        <v>1.6125450838072999E-2</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B422" t="s">
         <v>55</v>
@@ -6502,12 +6548,12 @@
         <v>1</v>
       </c>
       <c r="D422">
-        <v>2.29197271700569E-2</v>
+        <v>1.18148854946234E-2</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B423" t="s">
         <v>55</v>
@@ -6516,12 +6562,12 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>3.9574168194195597E-2</v>
+        <v>2.29197271700569E-2</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B424" t="s">
         <v>55</v>
@@ -6530,26 +6576,26 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>1.1582215602184399E-2</v>
+        <v>3.9574168194195597E-2</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425">
-        <v>5.2629734187376702E-2</v>
+        <v>1.1582215602184399E-2</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B426" t="s">
         <v>56</v>
@@ -6558,12 +6604,12 @@
         <v>1</v>
       </c>
       <c r="D426">
-        <v>9.2979064161555006E-2</v>
+        <v>5.2629734187376702E-2</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B427" t="s">
         <v>56</v>
@@ -6572,12 +6618,12 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>6.9477086305409094E-2</v>
+        <v>9.2979064161555006E-2</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B428" t="s">
         <v>56</v>
@@ -6586,12 +6632,12 @@
         <v>1</v>
       </c>
       <c r="D428">
-        <v>5.6674714043127801E-2</v>
+        <v>6.9477086305409094E-2</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B429" t="s">
         <v>56</v>
@@ -6600,12 +6646,12 @@
         <v>1</v>
       </c>
       <c r="D429">
-        <v>7.8251524968930702E-2</v>
+        <v>5.6674714043127801E-2</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B430" t="s">
         <v>56</v>
@@ -6614,12 +6660,12 @@
         <v>1</v>
       </c>
       <c r="D430">
-        <v>4.92966581771778E-2</v>
+        <v>7.8251524968930702E-2</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B431" t="s">
         <v>56</v>
@@ -6628,12 +6674,12 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>3.7410832961970397E-2</v>
+        <v>4.92966581771778E-2</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B432" t="s">
         <v>56</v>
@@ -6642,12 +6688,12 @@
         <v>1</v>
       </c>
       <c r="D432">
-        <v>8.5744186408959602E-2</v>
+        <v>3.7410832961970397E-2</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B433" t="s">
         <v>56</v>
@@ -6656,12 +6702,12 @@
         <v>1</v>
       </c>
       <c r="D433">
-        <v>5.9389707283774101E-2</v>
+        <v>8.5744186408959602E-2</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B434" t="s">
         <v>56</v>
@@ -6670,26 +6716,26 @@
         <v>1</v>
       </c>
       <c r="D434">
-        <v>6.3509720745313705E-2</v>
+        <v>5.9389707283774101E-2</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B435" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
       <c r="D435">
-        <v>0.97337417281765004</v>
+        <v>6.3509720745313705E-2</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B436" t="s">
         <v>57</v>
@@ -6698,12 +6744,12 @@
         <v>1</v>
       </c>
       <c r="D436">
-        <v>0.969707341423518</v>
+        <v>0.97337417281765004</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B437" t="s">
         <v>57</v>
@@ -6712,40 +6758,40 @@
         <v>1</v>
       </c>
       <c r="D437">
-        <v>0.97671431284906496</v>
+        <v>0.969707341423518</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B438" t="s">
         <v>57</v>
       </c>
       <c r="C438">
-        <v>0.152891205252324</v>
+        <v>1</v>
       </c>
       <c r="D438">
-        <v>0.97783728721563801</v>
+        <v>0.97671431284906496</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B439" t="s">
         <v>57</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0.152891205252324</v>
       </c>
       <c r="D439">
-        <v>0.97831638701189905</v>
+        <v>0.97783728721563801</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B440" t="s">
         <v>57</v>
@@ -6754,12 +6800,12 @@
         <v>1</v>
       </c>
       <c r="D440">
-        <v>0.97383567113715896</v>
+        <v>0.97831638701189905</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B441" t="s">
         <v>57</v>
@@ -6768,12 +6814,12 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>0.97412577318180205</v>
+        <v>0.97383567113715896</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B442" t="s">
         <v>57</v>
@@ -6782,12 +6828,12 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>0.96139318898860004</v>
+        <v>0.97412577318180205</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B443" t="s">
         <v>57</v>
@@ -6796,12 +6842,12 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>0.97462622336515103</v>
+        <v>0.96139318898860004</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B444" t="s">
         <v>57</v>
@@ -6810,26 +6856,26 @@
         <v>1</v>
       </c>
       <c r="D444">
-        <v>0.98059705191892899</v>
+        <v>0.97462622336515103</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B445" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C445">
         <v>1</v>
       </c>
       <c r="D445">
-        <v>0.27909387409255199</v>
+        <v>0.98059705191892899</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B446" t="s">
         <v>58</v>
@@ -6838,12 +6884,12 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>0.28506634358999799</v>
+        <v>0.27909387409255199</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B447" t="s">
         <v>58</v>
@@ -6852,40 +6898,40 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>0.29428960249297798</v>
+        <v>0.28506634358999799</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B448" t="s">
         <v>58</v>
       </c>
       <c r="C448">
-        <v>0.28242576742026498</v>
+        <v>1</v>
       </c>
       <c r="D448">
-        <v>0.30252552109479602</v>
+        <v>0.29428960249297798</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B449" t="s">
         <v>58</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0.28242576742026498</v>
       </c>
       <c r="D449">
-        <v>0.13992816867518801</v>
+        <v>0.30252552109479602</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B450" t="s">
         <v>58</v>
@@ -6894,12 +6940,12 @@
         <v>1</v>
       </c>
       <c r="D450">
-        <v>0.30257498815971101</v>
+        <v>0.13992816867518801</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B451" t="s">
         <v>58</v>
@@ -6908,12 +6954,12 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>0.21805661129029899</v>
+        <v>0.30257498815971101</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B452" t="s">
         <v>58</v>
@@ -6922,12 +6968,12 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>0.43168674484573399</v>
+        <v>0.21805661129029899</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B453" t="s">
         <v>58</v>
@@ -6936,12 +6982,12 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>0.101048709803961</v>
+        <v>0.43168674484573399</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B454" t="s">
         <v>58</v>
@@ -6950,26 +6996,26 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>0.30641654020446701</v>
+        <v>0.101048709803961</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B455" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C455">
         <v>1</v>
       </c>
       <c r="D455">
-        <v>0.67213225794171805</v>
+        <v>0.30641654020446701</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B456" t="s">
         <v>59</v>
@@ -6978,12 +7024,12 @@
         <v>1</v>
       </c>
       <c r="D456">
-        <v>0.86151150914969998</v>
+        <v>0.67213225794171805</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B457" t="s">
         <v>59</v>
@@ -6992,12 +7038,12 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>0.92074107437077002</v>
+        <v>0.86151150914969998</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B458" t="s">
         <v>59</v>
@@ -7006,12 +7052,12 @@
         <v>1</v>
       </c>
       <c r="D458">
-        <v>0.80440521292312706</v>
+        <v>0.92074107437077002</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B459" t="s">
         <v>59</v>
@@ -7020,12 +7066,12 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>0.78389787851264603</v>
+        <v>0.80440521292312706</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B460" t="s">
         <v>59</v>
@@ -7034,12 +7080,12 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0.86093578425023798</v>
+        <v>0.78389787851264603</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B461" t="s">
         <v>59</v>
@@ -7048,12 +7094,12 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>0.65219257972330402</v>
+        <v>0.86093578425023798</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B462" t="s">
         <v>59</v>
@@ -7062,12 +7108,12 @@
         <v>1</v>
       </c>
       <c r="D462">
-        <v>0.92398440685877903</v>
+        <v>0.65219257972330402</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B463" t="s">
         <v>59</v>
@@ -7076,12 +7122,12 @@
         <v>1</v>
       </c>
       <c r="D463">
-        <v>0.81471719561172395</v>
+        <v>0.92398440685877903</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B464" t="s">
         <v>59</v>
@@ -7090,26 +7136,26 @@
         <v>1</v>
       </c>
       <c r="D464">
-        <v>0.83461914256318404</v>
+        <v>0.81471719561172395</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B465" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
       <c r="D465">
-        <v>5.9047519463518603E-4</v>
+        <v>0.83461914256318404</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B466" t="s">
         <v>60</v>
@@ -7118,12 +7164,12 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>1.0665746079121E-4</v>
+        <v>5.9047519463518603E-4</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B467" t="s">
         <v>60</v>
@@ -7132,12 +7178,12 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>6.0828326932495496E-4</v>
+        <v>1.0665746079121E-4</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B468" t="s">
         <v>60</v>
@@ -7146,12 +7192,12 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>4.0091150358084201E-4</v>
+        <v>6.0828326932495496E-4</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B469" t="s">
         <v>60</v>
@@ -7160,12 +7206,12 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>6.6900439513905502E-3</v>
+        <v>4.0091150358084201E-4</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B470" t="s">
         <v>60</v>
@@ -7174,12 +7220,12 @@
         <v>1</v>
       </c>
       <c r="D470">
-        <v>7.2767260163715498E-4</v>
+        <v>6.6900439513905502E-3</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B471" t="s">
         <v>60</v>
@@ -7188,82 +7234,82 @@
         <v>1</v>
       </c>
       <c r="D471">
-        <v>2.8961179138710402E-4</v>
+        <v>7.2767260163715498E-4</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B472" t="s">
         <v>60</v>
       </c>
       <c r="C472">
-        <v>6.5369741917167101E-2</v>
+        <v>1</v>
       </c>
       <c r="D472">
-        <v>1.4677604393428101E-4</v>
+        <v>2.8961179138710402E-4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B473" t="s">
         <v>60</v>
       </c>
       <c r="C473">
-        <v>0.13688282986858899</v>
+        <v>6.5369741917167101E-2</v>
       </c>
       <c r="D473">
-        <v>2.9745647367283601E-4</v>
+        <v>1.4677604393428101E-4</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B474" t="s">
         <v>60</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>0.13688282986858899</v>
       </c>
       <c r="D474">
-        <v>2.10648485062639E-4</v>
+        <v>2.9745647367283601E-4</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B475" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C475">
-        <v>0.14451865955363299</v>
+        <v>1</v>
       </c>
       <c r="D475">
-        <v>0.97299630475388998</v>
+        <v>2.10648485062639E-4</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B476" t="s">
         <v>61</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>0.14451865955363299</v>
       </c>
       <c r="D476">
-        <v>0.95634623312526301</v>
+        <v>0.97299630475388998</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B477" t="s">
         <v>61</v>
@@ -7272,40 +7318,40 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>0.989549983678775</v>
+        <v>0.95634623312526301</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B478" t="s">
         <v>61</v>
       </c>
       <c r="C478">
-        <v>8.0960417841967905E-2</v>
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>0.98662624321675396</v>
+        <v>0.989549983678775</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B479" t="s">
         <v>61</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>8.0960417841967905E-2</v>
       </c>
       <c r="D479">
-        <v>0.90333143458517795</v>
+        <v>0.98662624321675396</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B480" t="s">
         <v>61</v>
@@ -7314,40 +7360,40 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>0.96919785767497901</v>
+        <v>0.90333143458517795</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B481" t="s">
         <v>61</v>
       </c>
       <c r="C481">
-        <v>0.13470236217018899</v>
+        <v>1</v>
       </c>
       <c r="D481">
-        <v>0.97221335700074696</v>
+        <v>0.96919785767497901</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B482" t="s">
         <v>61</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>0.13470236217018899</v>
       </c>
       <c r="D482">
-        <v>0.98821727655955105</v>
+        <v>0.97221335700074696</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B483" t="s">
         <v>61</v>
@@ -7356,54 +7402,54 @@
         <v>1</v>
       </c>
       <c r="D483">
-        <v>0.98923067223709604</v>
+        <v>0.98821727655955105</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B484" t="s">
         <v>61</v>
       </c>
       <c r="C484">
-        <v>2.9807080292808499E-2</v>
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>0.98194355729139504</v>
+        <v>0.98923067223709604</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B485" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C485">
-        <v>3.4086050018858297E-2</v>
+        <v>2.9807080292808499E-2</v>
       </c>
       <c r="D485">
-        <v>0.48530611375913202</v>
+        <v>0.98194355729139504</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B486" t="s">
         <v>62</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>3.4086050018858297E-2</v>
       </c>
       <c r="D486">
-        <v>0.31376282995050198</v>
+        <v>0.48530611375913202</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B487" t="s">
         <v>62</v>
@@ -7412,12 +7458,12 @@
         <v>1</v>
       </c>
       <c r="D487">
-        <v>0.33054105358392899</v>
+        <v>0.31376282995050198</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B488" t="s">
         <v>62</v>
@@ -7426,12 +7472,12 @@
         <v>1</v>
       </c>
       <c r="D488">
-        <v>0.37672171305691399</v>
+        <v>0.33054105358392899</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B489" t="s">
         <v>62</v>
@@ -7440,12 +7486,12 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>0.280082996865676</v>
+        <v>0.37672171305691399</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B490" t="s">
         <v>62</v>
@@ -7454,12 +7500,12 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>0.26896589861887499</v>
+        <v>0.280082996865676</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B491" t="s">
         <v>62</v>
@@ -7468,12 +7514,12 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>0.29658838969935197</v>
+        <v>0.26896589861887499</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B492" t="s">
         <v>62</v>
@@ -7482,12 +7528,12 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <v>0.47968630869707701</v>
+        <v>0.29658838969935197</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B493" t="s">
         <v>62</v>
@@ -7496,12 +7542,12 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>0.48390311884750398</v>
+        <v>0.47968630869707701</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B494" t="s">
         <v>62</v>
@@ -7510,26 +7556,26 @@
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0.29742651233738798</v>
+        <v>0.48390311884750398</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B495" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>0.58887247360244399</v>
+        <v>0.29742651233738798</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B496" t="s">
         <v>63</v>
@@ -7538,12 +7584,12 @@
         <v>1</v>
       </c>
       <c r="D496">
-        <v>0.57895448494784896</v>
+        <v>0.58887247360244399</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B497" t="s">
         <v>63</v>
@@ -7552,12 +7598,12 @@
         <v>1</v>
       </c>
       <c r="D497">
-        <v>0.73790511321669905</v>
+        <v>0.57895448494784896</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B498" t="s">
         <v>63</v>
@@ -7566,12 +7612,12 @@
         <v>1</v>
       </c>
       <c r="D498">
-        <v>0.70518033765966304</v>
+        <v>0.73790511321669905</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B499" t="s">
         <v>63</v>
@@ -7580,12 +7626,12 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>0.73569614178035903</v>
+        <v>0.70518033765966304</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B500" t="s">
         <v>63</v>
@@ -7594,12 +7640,12 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>0.579555814736879</v>
+        <v>0.73569614178035903</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B501" t="s">
         <v>63</v>
@@ -7608,12 +7654,12 @@
         <v>1</v>
       </c>
       <c r="D501">
-        <v>0.62820402580788903</v>
+        <v>0.579555814736879</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B502" t="s">
         <v>63</v>
@@ -7622,12 +7668,12 @@
         <v>1</v>
       </c>
       <c r="D502">
-        <v>0.539209357052576</v>
+        <v>0.62820402580788903</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B503" t="s">
         <v>63</v>
@@ -7636,12 +7682,12 @@
         <v>1</v>
       </c>
       <c r="D503">
-        <v>0.57359215945187603</v>
+        <v>0.539209357052576</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B504" t="s">
         <v>63</v>
@@ -7650,26 +7696,26 @@
         <v>1</v>
       </c>
       <c r="D504">
-        <v>0.55183981957705897</v>
+        <v>0.57359215945187603</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B505" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C505">
         <v>1</v>
       </c>
       <c r="D505">
-        <v>0.87259551150403403</v>
+        <v>0.55183981957705897</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B506" t="s">
         <v>64</v>
@@ -7678,54 +7724,54 @@
         <v>1</v>
       </c>
       <c r="D506">
-        <v>0.61849073656061204</v>
+        <v>0.87259551150403403</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B507" t="s">
         <v>64</v>
       </c>
       <c r="C507">
-        <v>6.7020547643610595E-2</v>
+        <v>1</v>
       </c>
       <c r="D507">
-        <v>0.33512452571267298</v>
+        <v>0.61849073656061204</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B508" t="s">
         <v>64</v>
       </c>
       <c r="C508">
-        <v>3.6221872575261202E-2</v>
+        <v>6.7020547643610595E-2</v>
       </c>
       <c r="D508">
-        <v>0.35836691530471798</v>
+        <v>0.33512452571267298</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B509" t="s">
         <v>64</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>3.6221872575261202E-2</v>
       </c>
       <c r="D509">
-        <v>0.156266279161275</v>
+        <v>0.35836691530471798</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B510" t="s">
         <v>64</v>
@@ -7734,40 +7780,40 @@
         <v>1</v>
       </c>
       <c r="D510">
-        <v>7.7775097943509702E-2</v>
+        <v>0.156266279161275</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B511" t="s">
         <v>64</v>
       </c>
       <c r="C511">
-        <v>2.0319067139047901E-2</v>
+        <v>1</v>
       </c>
       <c r="D511">
-        <v>0.33360465353881502</v>
+        <v>7.7775097943509702E-2</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B512" t="s">
         <v>64</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>2.0319067139047901E-2</v>
       </c>
       <c r="D512">
-        <v>0.25348827185391298</v>
+        <v>0.33360465353881502</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B513" t="s">
         <v>64</v>
@@ -7776,96 +7822,96 @@
         <v>1</v>
       </c>
       <c r="D513">
-        <v>0.25754902701611698</v>
+        <v>0.25348827185391298</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B514" t="s">
         <v>64</v>
       </c>
       <c r="C514">
-        <v>0.35618336618430202</v>
+        <v>1</v>
       </c>
       <c r="D514">
-        <v>0.46073783637318899</v>
+        <v>0.25754902701611698</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B515" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C515">
-        <v>3.4086050018858297E-2</v>
+        <v>0.35618336618430202</v>
       </c>
       <c r="D515">
-        <v>0.94420275948996002</v>
+        <v>0.46073783637318899</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B516" t="s">
         <v>65</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>3.4086050018858297E-2</v>
       </c>
       <c r="D516">
-        <v>0.96459997246540896</v>
+        <v>0.94420275948996002</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B517" t="s">
         <v>65</v>
       </c>
       <c r="C517">
-        <v>0.13299137010707099</v>
+        <v>1</v>
       </c>
       <c r="D517">
-        <v>0.96095394223179598</v>
+        <v>0.96459997246540896</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B518" t="s">
         <v>65</v>
       </c>
       <c r="C518">
-        <v>0.104716164830817</v>
+        <v>0.13299137010707099</v>
       </c>
       <c r="D518">
-        <v>0.95539683848157997</v>
+        <v>0.96095394223179598</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B519" t="s">
         <v>65</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0.104716164830817</v>
       </c>
       <c r="D519">
-        <v>0.88005195271053804</v>
+        <v>0.95539683848157997</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B520" t="s">
         <v>65</v>
@@ -7874,40 +7920,40 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>0.952205830664826</v>
+        <v>0.88005195271053804</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B521" t="s">
         <v>65</v>
       </c>
       <c r="C521">
-        <v>3.1634427937719797E-2</v>
+        <v>1</v>
       </c>
       <c r="D521">
-        <v>0.96453282243351202</v>
+        <v>0.952205830664826</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B522" t="s">
         <v>65</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>3.1634427937719797E-2</v>
       </c>
       <c r="D522">
-        <v>0.96129025457681705</v>
+        <v>0.96453282243351202</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B523" t="s">
         <v>65</v>
@@ -7916,40 +7962,40 @@
         <v>1</v>
       </c>
       <c r="D523">
-        <v>0.96435460500289705</v>
+        <v>0.96129025457681705</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B524" t="s">
         <v>65</v>
       </c>
       <c r="C524">
-        <v>6.0949468134677401E-2</v>
+        <v>1</v>
       </c>
       <c r="D524">
-        <v>0.96267549185350199</v>
+        <v>0.96435460500289705</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B525" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>6.0949468134677401E-2</v>
       </c>
       <c r="D525">
-        <v>0.26830729186164398</v>
+        <v>0.96267549185350199</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B526" t="s">
         <v>66</v>
@@ -7958,54 +8004,54 @@
         <v>1</v>
       </c>
       <c r="D526">
-        <v>0.28333115329222502</v>
+        <v>0.26830729186164398</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B527" t="s">
         <v>66</v>
       </c>
       <c r="C527">
-        <v>0.13299137010707099</v>
+        <v>1</v>
       </c>
       <c r="D527">
-        <v>0.28101370876176801</v>
+        <v>0.28333115329222502</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B528" t="s">
         <v>66</v>
       </c>
       <c r="C528">
-        <v>0.104716164830817</v>
+        <v>0.13299137010707099</v>
       </c>
       <c r="D528">
-        <v>0.29515154237703201</v>
+        <v>0.28101370876176801</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B529" t="s">
         <v>66</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0.104716164830817</v>
       </c>
       <c r="D529">
-        <v>0.276383669334269</v>
+        <v>0.29515154237703201</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B530" t="s">
         <v>66</v>
@@ -8014,12 +8060,12 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>0.29144645247428203</v>
+        <v>0.276383669334269</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B531" t="s">
         <v>66</v>
@@ -8028,12 +8074,12 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <v>0.41014738755413999</v>
+        <v>0.29144645247428203</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B532" t="s">
         <v>66</v>
@@ -8042,12 +8088,12 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>0.29081535546703902</v>
+        <v>0.41014738755413999</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B533" t="s">
         <v>66</v>
@@ -8056,12 +8102,12 @@
         <v>1</v>
       </c>
       <c r="D533">
-        <v>0.28273533813188401</v>
+        <v>0.29081535546703902</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B534" t="s">
         <v>66</v>
@@ -8070,26 +8116,26 @@
         <v>1</v>
       </c>
       <c r="D534">
-        <v>0.24337286595770899</v>
+        <v>0.28273533813188401</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B535" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C535">
         <v>1</v>
       </c>
       <c r="D535">
-        <v>1.9568901730401299E-4</v>
+        <v>0.24337286595770899</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B536" t="s">
         <v>67</v>
@@ -8098,54 +8144,54 @@
         <v>1</v>
       </c>
       <c r="D536">
-        <v>7.4163260255428697E-6</v>
+        <v>1.9568901730401299E-4</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B537" t="s">
         <v>67</v>
       </c>
       <c r="C537">
-        <v>0.79208283756186104</v>
+        <v>1</v>
       </c>
       <c r="D537">
-        <v>1.5186766546829499E-6</v>
+        <v>7.4163260255428697E-6</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B538" t="s">
         <v>67</v>
       </c>
       <c r="C538">
-        <v>0.33328527988260898</v>
+        <v>0.79208283756186104</v>
       </c>
       <c r="D538">
-        <v>1.0833207340579701E-5</v>
+        <v>1.5186766546829499E-6</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B539" t="s">
         <v>67</v>
       </c>
       <c r="C539">
-        <v>1</v>
+        <v>0.33328527988260898</v>
       </c>
       <c r="D539">
-        <v>1.42133958345936E-3</v>
+        <v>1.0833207340579701E-5</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B540" t="s">
         <v>67</v>
@@ -8154,12 +8200,12 @@
         <v>1</v>
       </c>
       <c r="D540">
-        <v>6.6867282202285405E-7</v>
+        <v>1.42133958345936E-3</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B541" t="s">
         <v>67</v>
@@ -8168,65 +8214,68 @@
         <v>1</v>
       </c>
       <c r="D541">
-        <v>4.9444502006932702E-7</v>
+        <v>6.6867282202285405E-7</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B542" t="s">
         <v>67</v>
       </c>
       <c r="C542">
-        <v>0.169709534451886</v>
+        <v>1</v>
       </c>
       <c r="D542">
-        <v>1.9925339541382099E-2</v>
+        <v>4.9444502006932702E-7</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B543" t="s">
         <v>67</v>
       </c>
       <c r="C543">
-        <v>1</v>
+        <v>0.169709534451886</v>
       </c>
       <c r="D543">
-        <v>1.2912980074874101E-4</v>
+        <v>1.9925339541382099E-2</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B544" t="s">
         <v>67</v>
       </c>
       <c r="C544">
-        <v>0.49948168903197898</v>
+        <v>1</v>
       </c>
       <c r="D544">
-        <v>1.3334590222610599E-5</v>
+        <v>1.2912980074874101E-4</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B545" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C545">
-        <v>1</v>
+        <v>0.49948168903197898</v>
+      </c>
+      <c r="D545">
+        <v>1.3334590222610599E-5</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B546" t="s">
         <v>68</v>
@@ -8237,7 +8286,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B547" t="s">
         <v>68</v>
@@ -8248,7 +8297,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B548" t="s">
         <v>68</v>
@@ -8259,7 +8308,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B549" t="s">
         <v>68</v>
@@ -8270,7 +8319,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B550" t="s">
         <v>68</v>
@@ -8281,7 +8330,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B551" t="s">
         <v>68</v>
@@ -8292,7 +8341,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B552" t="s">
         <v>68</v>
@@ -8303,7 +8352,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B553" t="s">
         <v>68</v>
@@ -8314,7 +8363,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B554" t="s">
         <v>68</v>
@@ -8325,21 +8374,18 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B555" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C555">
         <v>1</v>
-      </c>
-      <c r="D555">
-        <v>0.95438042961303104</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B556" t="s">
         <v>69</v>
@@ -8348,40 +8394,40 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>0.95184734527186898</v>
+        <v>0.95438042961303104</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B557" t="s">
         <v>69</v>
       </c>
       <c r="C557">
-        <v>3.5411379087367703E-2</v>
+        <v>1</v>
       </c>
       <c r="D557">
-        <v>0.93639424814929095</v>
+        <v>0.95184734527186898</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B558" t="s">
         <v>69</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>3.5411379087367703E-2</v>
       </c>
       <c r="D558">
-        <v>0.95302409164852697</v>
+        <v>0.93639424814929095</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B559" t="s">
         <v>69</v>
@@ -8390,12 +8436,12 @@
         <v>1</v>
       </c>
       <c r="D559">
-        <v>0.91633668009755298</v>
+        <v>0.95302409164852697</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B560" t="s">
         <v>69</v>
@@ -8404,12 +8450,12 @@
         <v>1</v>
       </c>
       <c r="D560">
-        <v>0.95754676586832499</v>
+        <v>0.91633668009755298</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B561" t="s">
         <v>69</v>
@@ -8418,12 +8464,12 @@
         <v>1</v>
       </c>
       <c r="D561">
-        <v>0.95928469305775099</v>
+        <v>0.95754676586832499</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B562" t="s">
         <v>69</v>
@@ -8432,12 +8478,12 @@
         <v>1</v>
       </c>
       <c r="D562">
-        <v>0.95885366210032297</v>
+        <v>0.95928469305775099</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B563" t="s">
         <v>69</v>
@@ -8446,40 +8492,40 @@
         <v>1</v>
       </c>
       <c r="D563">
-        <v>0.91753069152333899</v>
+        <v>0.95885366210032297</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B564" t="s">
         <v>69</v>
       </c>
       <c r="C564">
-        <v>0.29245572672548498</v>
+        <v>1</v>
       </c>
       <c r="D564">
-        <v>0.963060274549842</v>
+        <v>0.91753069152333899</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B565" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>0.29245572672548498</v>
       </c>
       <c r="D565">
-        <v>5.9177364011257401E-2</v>
+        <v>0.963060274549842</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B566" t="s">
         <v>70</v>
@@ -8488,12 +8534,12 @@
         <v>1</v>
       </c>
       <c r="D566">
-        <v>6.9417070130740305E-2</v>
+        <v>5.9177364011257401E-2</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B567" t="s">
         <v>70</v>
@@ -8502,12 +8548,12 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>4.5402105215390398E-2</v>
+        <v>6.9417070130740305E-2</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B568" t="s">
         <v>70</v>
@@ -8516,40 +8562,40 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>4.2903547282592103E-2</v>
+        <v>4.5402105215390398E-2</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B569" t="s">
         <v>70</v>
       </c>
       <c r="C569">
-        <v>1.6311861354385001E-2</v>
+        <v>1</v>
       </c>
       <c r="D569">
-        <v>3.209656014159E-2</v>
+        <v>4.2903547282592103E-2</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B570" t="s">
         <v>70</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>1.6311861354385001E-2</v>
       </c>
       <c r="D570">
-        <v>5.7711307848752502E-2</v>
+        <v>3.209656014159E-2</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B571" t="s">
         <v>70</v>
@@ -8558,12 +8604,12 @@
         <v>1</v>
       </c>
       <c r="D571">
-        <v>3.8161404365808102E-2</v>
+        <v>5.7711307848752502E-2</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B572" t="s">
         <v>70</v>
@@ -8572,12 +8618,12 @@
         <v>1</v>
       </c>
       <c r="D572">
-        <v>2.6007623289498599E-2</v>
+        <v>3.8161404365808102E-2</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B573" t="s">
         <v>70</v>
@@ -8586,12 +8632,12 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>3.7430103802398501E-2</v>
+        <v>2.6007623289498599E-2</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B574" t="s">
         <v>70</v>
@@ -8600,82 +8646,82 @@
         <v>1</v>
       </c>
       <c r="D574">
-        <v>5.1586382270171399E-2</v>
+        <v>3.7430103802398501E-2</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B575" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C575">
-        <v>0.20187368829154201</v>
+        <v>1</v>
       </c>
       <c r="D575">
-        <v>3.1430673550490701E-2</v>
+        <v>5.1586382270171399E-2</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B576" t="s">
         <v>71</v>
       </c>
       <c r="C576">
-        <v>1</v>
+        <v>0.20187368829154201</v>
       </c>
       <c r="D576">
-        <v>5.3249091383694901E-2</v>
+        <v>3.1430673550490701E-2</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B577" t="s">
         <v>71</v>
       </c>
       <c r="C577">
-        <v>0.224191181395898</v>
+        <v>1</v>
       </c>
       <c r="D577">
-        <v>8.3726134463688207E-2</v>
+        <v>5.3249091383694901E-2</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B578" t="s">
         <v>71</v>
       </c>
       <c r="C578">
-        <v>4.0287310222502501E-3</v>
+        <v>0.224191181395898</v>
       </c>
       <c r="D578">
-        <v>0.12612308494782901</v>
+        <v>8.3726134463688207E-2</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B579" t="s">
         <v>71</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>4.0287310222502501E-3</v>
       </c>
       <c r="D579">
-        <v>8.5066012283748493E-2</v>
+        <v>0.12612308494782901</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B580" t="s">
         <v>71</v>
@@ -8684,82 +8730,82 @@
         <v>1</v>
       </c>
       <c r="D580">
-        <v>0.42317649148750902</v>
+        <v>8.5066012283748493E-2</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B581" t="s">
         <v>71</v>
       </c>
       <c r="C581">
-        <v>0.188610144617121</v>
+        <v>1</v>
       </c>
       <c r="D581">
-        <v>2.5798391551934901E-2</v>
+        <v>0.42317649148750902</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B582" t="s">
         <v>71</v>
       </c>
       <c r="C582">
-        <v>0.104050541827969</v>
+        <v>0.188610144617121</v>
       </c>
       <c r="D582">
-        <v>0.43790187934329999</v>
+        <v>2.5798391551934901E-2</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B583" t="s">
         <v>71</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0.104050541827969</v>
       </c>
       <c r="D583">
-        <v>0.56662163044012503</v>
+        <v>0.43790187934329999</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B584" t="s">
         <v>71</v>
       </c>
       <c r="C584">
-        <v>0.33560443699015002</v>
+        <v>1</v>
       </c>
       <c r="D584">
-        <v>0.34167886325363001</v>
+        <v>0.56662163044012503</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B585" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C585">
-        <v>1</v>
+        <v>0.33560443699015002</v>
       </c>
       <c r="D585">
-        <v>9.6768887093140297E-8</v>
+        <v>0.34167886325363001</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B586" t="s">
         <v>72</v>
@@ -8768,82 +8814,82 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1.4595228554650699E-7</v>
+        <v>9.6768887093140297E-8</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B587" t="s">
         <v>72</v>
       </c>
       <c r="C587">
-        <v>0.65722201640506195</v>
+        <v>1</v>
       </c>
       <c r="D587">
-        <v>1.97185454315711E-7</v>
+        <v>1.4595228554650699E-7</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B588" t="s">
         <v>72</v>
       </c>
       <c r="C588">
-        <v>0.191650443064001</v>
+        <v>0.65722201640506195</v>
       </c>
       <c r="D588">
-        <v>2.6106048813766398E-7</v>
+        <v>1.97185454315711E-7</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B589" t="s">
         <v>72</v>
       </c>
       <c r="C589">
-        <v>1</v>
+        <v>0.191650443064001</v>
       </c>
       <c r="D589">
-        <v>1.0210604890647499E-6</v>
+        <v>2.6106048813766398E-7</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B590" t="s">
         <v>72</v>
       </c>
       <c r="C590">
-        <v>0.279452650104212</v>
+        <v>1</v>
       </c>
       <c r="D590">
-        <v>1.6670047107304401E-7</v>
+        <v>1.0210604890647499E-6</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B591" t="s">
         <v>72</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0.279452650104212</v>
       </c>
       <c r="D591">
-        <v>1.47515646243229E-7</v>
+        <v>1.6670047107304401E-7</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B592" t="s">
         <v>72</v>
@@ -8852,12 +8898,12 @@
         <v>1</v>
       </c>
       <c r="D592">
-        <v>1.38029012751118E-7</v>
+        <v>1.47515646243229E-7</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B593" t="s">
         <v>72</v>
@@ -8866,82 +8912,82 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>5.6218393341348003E-7</v>
+        <v>1.38029012751118E-7</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B594" t="s">
         <v>72</v>
       </c>
       <c r="C594">
-        <v>7.6987586725948298E-2</v>
+        <v>1</v>
       </c>
       <c r="D594">
-        <v>1.7133349912507101E-7</v>
+        <v>5.6218393341348003E-7</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B595" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>7.6987586725948298E-2</v>
       </c>
       <c r="D595">
-        <v>0.11329195163830499</v>
+        <v>1.7133349912507101E-7</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B596" t="s">
         <v>73</v>
       </c>
       <c r="C596">
-        <v>0.32871902120339203</v>
+        <v>1</v>
       </c>
       <c r="D596">
-        <v>5.7086747457731499E-2</v>
+        <v>0.11329195163830499</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B597" t="s">
         <v>73</v>
       </c>
       <c r="C597">
-        <v>0.70284280298648805</v>
+        <v>0.32871902120339203</v>
       </c>
       <c r="D597">
-        <v>5.6278349629484699E-2</v>
+        <v>5.7086747457731499E-2</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B598" t="s">
         <v>73</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0.70284280298648805</v>
       </c>
       <c r="D598">
-        <v>8.7462293283917705E-2</v>
+        <v>5.6278349629484699E-2</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B599" t="s">
         <v>73</v>
@@ -8950,12 +8996,12 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>0.100919295652772</v>
+        <v>8.7462293283917705E-2</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B600" t="s">
         <v>73</v>
@@ -8964,12 +9010,12 @@
         <v>1</v>
       </c>
       <c r="D600">
-        <v>8.8254582416521801E-2</v>
+        <v>0.100919295652772</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B601" t="s">
         <v>73</v>
@@ -8978,12 +9024,12 @@
         <v>1</v>
       </c>
       <c r="D601">
-        <v>0.19685072416634999</v>
+        <v>8.8254582416521801E-2</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B602" t="s">
         <v>73</v>
@@ -8992,12 +9038,12 @@
         <v>1</v>
       </c>
       <c r="D602">
-        <v>0.27954820981857398</v>
+        <v>0.19685072416634999</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B603" t="s">
         <v>73</v>
@@ -9006,12 +9052,12 @@
         <v>1</v>
       </c>
       <c r="D603">
-        <v>0.22048114609561401</v>
+        <v>0.27954820981857398</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B604" t="s">
         <v>73</v>
@@ -9020,6 +9066,20 @@
         <v>1</v>
       </c>
       <c r="D604">
+        <v>0.22048114609561401</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>14</v>
+      </c>
+      <c r="B605" t="s">
+        <v>73</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
         <v>4.2153103602430499E-2</v>
       </c>
     </row>

--- a/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
+++ b/supplementary_tables/S2_cancers_mendelian_diseases_genetic_similarity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panagiotisnikolaoslalagkas/Desktop/mendelian_comorbidity_therapeutics/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACBC9BC-5AB1-0B4B-82F3-613BA0676D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD8F89D-4F9C-5F41-89C2-E7CC64F883DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8280" yWindow="-24220" windowWidth="25720" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5980" yWindow="-17900" windowWidth="25720" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -260,21 +260,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">coexpression_pvalue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lowest adjusted pvalue of the correlation in expression between cancer driver genes and a set of Mendelian disease genes after correction for the number of mutated genes in a cancer</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -315,6 +300,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>) was not available.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">coexpression_pvalue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lowest adjusted pvalue of the correlation in expression between cancer driver genes and a set of Mendelian disease genes  (corrected for the number of mutated genes in a cancer)</t>
     </r>
   </si>
 </sst>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,12 +691,12 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
